--- a/biology/Botanique/Ninzo_Matsumura/Ninzo_Matsumura.xlsx
+++ b/biology/Botanique/Ninzo_Matsumura/Ninzo_Matsumura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jinzô Matsumura (松村 任三, Matsumura Jinzô?), ou Ninzo Matsumura, est un botaniste japonais, né le 14 février 1856 dans la préfecture d'Ibaraki et mort le 4 mai 1928.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d’une famille de samouraï, il s’intéresse très tôt à la botanique. À trente ans, il part étudier à Wurtzbourg et à Heidelberg (1886-1888). En 1883, il devient professeur assistant de botanique à l’université de Tokyo, en 1890, il devient professeur et en 1897 directeur du jardin botanique. Il participe à la préparation de l’Unabridged Japanese-English Dictionary (1896) de Francis Brinkley (1841-1912). Il est l’auteur de nombreuses publications sur la flore du Japon.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nomenclature of Japanese Plants in Latin, Japanese, and Chinese (1884)
 Names of Plants and their Products in English, Japanese, and Chinese (1892)
